--- a/Data Structures (Java Python) (3).xlsx
+++ b/Data Structures (Java Python) (3).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1101C1E1-9E4B-4196-80CA-8DF86AE05760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106320CA-4974-4413-8AAC-DB8892C8B895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23940" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Python built-in datatypes" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Data structure Name</t>
   </si>
@@ -886,6 +886,42 @@
   </si>
   <si>
     <t>A dictionary is a collection which is unordered, changeable and indexed.</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Changeable</t>
+  </si>
+  <si>
+    <t>Allows Duplicates</t>
+  </si>
+  <si>
+    <t>Indexed</t>
+  </si>
+  <si>
+    <t>Alows different datatypes</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>List []</t>
+  </si>
+  <si>
+    <t>Tuple ()</t>
+  </si>
+  <si>
+    <t>since python 3.7</t>
+  </si>
+  <si>
+    <t>Dictionary {}</t>
+  </si>
+  <si>
+    <t>Set {}</t>
   </si>
 </sst>
 </file>
@@ -909,7 +945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,6 +964,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -941,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -953,6 +1001,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1293,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1491,13 +1542,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
